--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7098950095139561</v>
+        <v>0.6790616759574563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7046074874561903</v>
+        <v>0.6891776358088657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7101747710954442</v>
+        <v>0.6948030281436006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7175246340748288</v>
+        <v>0.6832604754996421</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7093707955505162</v>
+        <v>0.6803384920575406</v>
       </c>
     </row>
   </sheetData>
